--- a/xls/teste.xlsx
+++ b/xls/teste.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t xml:space="preserve">Atividade(nome)</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">Requisitos Associados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsável</t>
   </si>
   <si>
     <t xml:space="preserve">[A] Manter Teste 1</t>
@@ -308,19 +305,19 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.6989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.0612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.7551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -333,97 +330,95 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>40</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="6" t="n">
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
